--- a/Agile Document/Defect_Tracker_Filled.xlsx
+++ b/Agile Document/Defect_Tracker_Filled.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavanya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\live-ai-speech-translator\Agile Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C880F3A2-516B-4BDD-8087-82A6C0BE536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCDCA3B-A00E-4F79-82C0-F4C08241D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Sl No</t>
   </si>
@@ -212,25 +212,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Lavanya</t>
-  </si>
-  <si>
-    <t>Anoohya</t>
-  </si>
-  <si>
-    <t>varun</t>
-  </si>
-  <si>
-    <t>Kashish</t>
-  </si>
-  <si>
-    <t>Piyush</t>
-  </si>
-  <si>
-    <t>Manya sri</t>
-  </si>
-  <si>
-    <t>Shaloni</t>
+    <t>Aryan Khurana</t>
   </si>
 </sst>
 </file>
@@ -692,7 +674,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -702,7 +684,7 @@
     <col min="3" max="3" width="14.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="63.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="21.88671875" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" style="4" customWidth="1"/>
@@ -814,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>23</v>
@@ -843,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>29</v>
@@ -872,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
@@ -901,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>17</v>
@@ -930,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>44</v>
@@ -959,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
